--- a/hardware/TELEXo/board/TELEXo-BOM.xlsx
+++ b/hardware/TELEXo/board/TELEXo-BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="9600" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="4160" windowWidth="37720" windowHeight="19540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TELEXo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Telex_O" localSheetId="0">TELEXo!$A$1:$H$28</definedName>
+    <definedName name="Telex_O" localSheetId="0">TELEXo!#REF!</definedName>
+    <definedName name="Telex_O_1" localSheetId="0">TELEXo!$A$1:$J$29</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -51,11 +52,31 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="Telex-O.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:brendon:Documents:eagle:TELEX:Telex-O.csv" comma="1" semicolon="1">
+      <textFields count="14">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="123">
   <si>
     <t>LM4040A10IDBZR</t>
   </si>
@@ -84,9 +105,6 @@
     <t>1x10 Header</t>
   </si>
   <si>
-    <t>LHDR_F, LHDR_M, SHDR_F, SHDR_M</t>
-  </si>
-  <si>
     <t>M14</t>
   </si>
   <si>
@@ -96,9 +114,6 @@
     <t>1x14 Header</t>
   </si>
   <si>
-    <t>T-LEFT-F, T-LEFT-M, T-RIGHT-F, T-RIGHT-M</t>
-  </si>
-  <si>
     <t>MO3PTH</t>
   </si>
   <si>
@@ -111,9 +126,6 @@
     <t>1x3 Header</t>
   </si>
   <si>
-    <t>II1, II2</t>
-  </si>
-  <si>
     <t>MP3x2POGO_PINS</t>
   </si>
   <si>
@@ -126,18 +138,12 @@
     <t>2x3 Header</t>
   </si>
   <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
     <t>LED3MM</t>
   </si>
   <si>
     <t>3MM Amber DiffusedLED</t>
   </si>
   <si>
-    <t>CV1_LED, CV2_LED, CV3_LED, CV4_LED, TRA_LED, TRB_LED, TRC_LED, TRD_LED</t>
-  </si>
-  <si>
     <t>MCP1703AT-5002E/CB</t>
   </si>
   <si>
@@ -213,27 +219,18 @@
     <t>1u</t>
   </si>
   <si>
-    <t>C101, C110</t>
-  </si>
-  <si>
     <t>81-GRM18R61A105KA61J</t>
   </si>
   <si>
     <t>.1u</t>
   </si>
   <si>
-    <t>C100, C104, C106, C108, C109, C111, C112, C113</t>
-  </si>
-  <si>
     <t>581-06033C104JAT2A</t>
   </si>
   <si>
     <t>180p</t>
   </si>
   <si>
-    <t>C2, C3, C4, C102</t>
-  </si>
-  <si>
     <t>77-VJ1206A181FXACBC</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>U1</t>
   </si>
   <si>
-    <t>TI</t>
-  </si>
-  <si>
     <t>595-DAC8564ICPW</t>
   </si>
   <si>
@@ -267,9 +261,6 @@
     <t>Europower 2x5</t>
   </si>
   <si>
-    <t>POWER</t>
-  </si>
-  <si>
     <t>EURO_JACKS-7</t>
   </si>
   <si>
@@ -279,9 +270,6 @@
     <t>Kobiconn 3.5mm</t>
   </si>
   <si>
-    <t>CV1, CV2, CV3, CV4, TRA, TRB, TRC, TRD</t>
-  </si>
-  <si>
     <t>OPA4171</t>
   </si>
   <si>
@@ -309,12 +297,6 @@
     <t>Polyfuse Resettable PTC</t>
   </si>
   <si>
-    <t>F100, F101</t>
-  </si>
-  <si>
-    <t>Littelfuse</t>
-  </si>
-  <si>
     <t>576-0805L010</t>
   </si>
   <si>
@@ -330,9 +312,6 @@
     <t>Resistor .05%</t>
   </si>
   <si>
-    <t>R9, R10, R11, R12</t>
-  </si>
-  <si>
     <t>667-ERA-3ARW153V</t>
   </si>
   <si>
@@ -342,9 +321,6 @@
     <t>Resistor .1%</t>
   </si>
   <si>
-    <t>R13, R15, R18, R19, R21, R22, R23, R100</t>
-  </si>
-  <si>
     <t>71-TNPW0603120KBEEA</t>
   </si>
   <si>
@@ -357,9 +333,6 @@
     <t>1k</t>
   </si>
   <si>
-    <t>R14, R16, R17, R20, R102, R103, R104, R105</t>
-  </si>
-  <si>
     <t>652-CRT0603BY1001EAS</t>
   </si>
   <si>
@@ -369,9 +342,6 @@
     <t>Resistor 1%</t>
   </si>
   <si>
-    <t>R1, R2, R3, R4, R5, R6, R7, R8</t>
-  </si>
-  <si>
     <t>71-CRCW0603-10K-E3</t>
   </si>
   <si>
@@ -396,9 +366,6 @@
     <t>Single Bus Buffer Gate</t>
   </si>
   <si>
-    <t>IC102, IC103, IC104, IC105</t>
-  </si>
-  <si>
     <t>595-SNAHCT1G125DBVR</t>
   </si>
   <si>
@@ -408,9 +375,6 @@
     <t>Teensy 3.2</t>
   </si>
   <si>
-    <t>U$1</t>
-  </si>
-  <si>
     <t>Qty</t>
   </si>
   <si>
@@ -426,13 +390,61 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Parts</t>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
     <t>OC_MOUSER</t>
+  </si>
+  <si>
+    <t>TopTop</t>
+  </si>
+  <si>
+    <t>TopBottom</t>
+  </si>
+  <si>
+    <t>BottomBottom</t>
+  </si>
+  <si>
+    <t>BottomTop</t>
+  </si>
+  <si>
+    <t>C101,C110</t>
+  </si>
+  <si>
+    <t>C112,C113</t>
+  </si>
+  <si>
+    <t>C100,C104,C106,C108,C109,C111</t>
+  </si>
+  <si>
+    <t>C102</t>
+  </si>
+  <si>
+    <t>C2,C3,C4</t>
+  </si>
+  <si>
+    <t>F100,F101</t>
+  </si>
+  <si>
+    <t>R9,R10,R11,R12</t>
+  </si>
+  <si>
+    <t>R100</t>
+  </si>
+  <si>
+    <t>R13,R15,R18,R19,R21,R22,R23</t>
+  </si>
+  <si>
+    <t>R14,R16,R17,R20</t>
+  </si>
+  <si>
+    <t>R102,R103,R104,R105</t>
+  </si>
+  <si>
+    <t>279-CPF0603F10KC1</t>
+  </si>
+  <si>
+    <t>R1,R2,R3,R4,R5,R6,R7,R8</t>
+  </si>
+  <si>
+    <t>IC102,IC103,IC104,IC105</t>
   </si>
 </sst>
 </file>
@@ -496,7 +508,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
     <dxf>
       <font>
         <strike val="0"/>
@@ -512,7 +524,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -525,7 +541,45 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -642,23 +696,25 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Telex-O" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Telex-O_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:H28" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:J29" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J29"/>
   <sortState ref="A2:J28">
     <sortCondition ref="E1:E28"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Qty" dataDxfId="7"/>
-    <tableColumn id="2" name="Value" dataDxfId="6"/>
-    <tableColumn id="3" name="Device" dataDxfId="5"/>
-    <tableColumn id="4" name="Package" dataDxfId="4"/>
-    <tableColumn id="5" name="Description" dataDxfId="3"/>
-    <tableColumn id="6" name="Parts" dataDxfId="2"/>
-    <tableColumn id="8" name="MF" dataDxfId="1"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="Qty" dataDxfId="9"/>
+    <tableColumn id="2" name="Value" dataDxfId="8"/>
+    <tableColumn id="3" name="Device" dataDxfId="7"/>
+    <tableColumn id="4" name="Package" dataDxfId="6"/>
+    <tableColumn id="5" name="Description" dataDxfId="5"/>
+    <tableColumn id="14" name="TopTop" dataDxfId="4"/>
+    <tableColumn id="13" name="TopBottom" dataDxfId="3"/>
+    <tableColumn id="12" name="BottomBottom" dataDxfId="2"/>
+    <tableColumn id="9" name="BottomTop" dataDxfId="1"/>
     <tableColumn id="10" name="OC_MOUSER" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -928,52 +984,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -989,14 +1053,14 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -1010,432 +1074,414 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>8</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2">
         <v>1206</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>1206</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2">
         <v>1206</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -1443,131 +1489,151 @@
         <v>470</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="2" t="s">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="E28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="C29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>8</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>8</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>4</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/TELEXo/board/TELEXo-BOM.xlsx
+++ b/hardware/TELEXo/board/TELEXo-BOM.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="Telex_O" localSheetId="0">TELEXo!#REF!</definedName>
-    <definedName name="Telex_O_1" localSheetId="0">TELEXo!$A$1:$J$29</definedName>
+    <definedName name="Telex_O_1" localSheetId="0">TELEXo!$A$1:$J$28</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
   <si>
     <t>LM4040A10IDBZR</t>
   </si>
@@ -436,9 +436,6 @@
   </si>
   <si>
     <t>R102,R103,R104,R105</t>
-  </si>
-  <si>
-    <t>279-CPF0603F10KC1</t>
   </si>
   <si>
     <t>R1,R2,R3,R4,R5,R6,R7,R8</t>
@@ -700,8 +697,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:J29" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:J28" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J28"/>
   <sortState ref="A2:J28">
     <sortCondition ref="E1:E28"/>
   </sortState>
@@ -984,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1311,7 +1308,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <v>1206</v>
@@ -1529,7 +1526,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>86</v>
@@ -1543,96 +1540,76 @@
       <c r="E25" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="F25" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G25" s="1" t="s">
         <v>119</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="2" t="s">
         <v>98</v>
       </c>
     </row>

--- a/hardware/TELEXo/board/TELEXo-BOM.xlsx
+++ b/hardware/TELEXo/board/TELEXo-BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="4160" windowWidth="37720" windowHeight="19540" tabRatio="500"/>
+    <workbookView xWindow="24680" yWindow="7980" windowWidth="25920" windowHeight="17900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TELEXo" sheetId="1" r:id="rId1"/>
@@ -219,9 +219,6 @@
     <t>1u</t>
   </si>
   <si>
-    <t>81-GRM18R61A105KA61J</t>
-  </si>
-  <si>
     <t>.1u</t>
   </si>
   <si>
@@ -442,6 +439,9 @@
   </si>
   <si>
     <t>IC102,IC103,IC104,IC105</t>
+  </si>
+  <si>
+    <t>581-06033C105KAT2A</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,34 +1004,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1268,10 +1268,10 @@
         <v>35</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>42</v>
@@ -1291,13 +1291,13 @@
         <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="J14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1305,7 +1305,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>34</v>
@@ -1317,13 +1317,13 @@
         <v>35</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1331,22 +1331,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="I16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1354,16 +1354,16 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1371,16 +1371,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1388,22 +1388,22 @@
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="I19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1411,22 +1411,22 @@
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="H20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1434,22 +1434,22 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="I21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1457,25 +1457,25 @@
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="H22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1486,19 +1486,19 @@
         <v>470</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1506,22 +1506,22 @@
         <v>4</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1529,25 +1529,25 @@
         <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1555,22 +1555,22 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="J26" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1578,22 +1578,22 @@
         <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="G27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1601,16 +1601,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/TELEXo/board/TELEXo-BOM.xlsx
+++ b/hardware/TELEXo/board/TELEXo-BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24680" yWindow="7980" windowWidth="25920" windowHeight="17900" tabRatio="500"/>
+    <workbookView xWindow="17100" yWindow="6340" windowWidth="25920" windowHeight="17900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TELEXo" sheetId="1" r:id="rId1"/>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>83</v>
@@ -1517,6 +1517,9 @@
       <c r="E24" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="I24" s="1" t="s">
         <v>117</v>
       </c>
@@ -1526,7 +1529,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>85</v>
@@ -1542,9 +1545,6 @@
       </c>
       <c r="F25" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>87</v>

--- a/hardware/TELEXo/board/TELEXo-BOM.xlsx
+++ b/hardware/TELEXo/board/TELEXo-BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24680" yWindow="7980" windowWidth="25920" windowHeight="17900" tabRatio="500"/>
+    <workbookView xWindow="19660" yWindow="7980" windowWidth="30940" windowHeight="17900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TELEXo" sheetId="1" r:id="rId1"/>
@@ -984,7 +984,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>83</v>
@@ -1517,6 +1517,9 @@
       <c r="E24" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="I24" s="1" t="s">
         <v>117</v>
       </c>
@@ -1526,7 +1529,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>85</v>
@@ -1542,9 +1545,6 @@
       </c>
       <c r="F25" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>87</v>

--- a/hardware/TELEXo/board/TELEXo-BOM.xlsx
+++ b/hardware/TELEXo/board/TELEXo-BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19660" yWindow="7980" windowWidth="30940" windowHeight="17900" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TELEXo" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="Telex_O" localSheetId="0">TELEXo!#REF!</definedName>
-    <definedName name="Telex_O_1" localSheetId="0">TELEXo!$A$1:$J$28</definedName>
+    <definedName name="Telex_O_1" localSheetId="0">TELEXo!$A$1:$J$31</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,8 +31,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Telex-O.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Telex-O.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:brendon:Documents:eagle:TELEX:Telex-O.csv" comma="1" semicolon="1">
       <textFields count="14">
         <textField/>
@@ -52,7 +52,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="Telex-O.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="Telex-O.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:brendon:Documents:eagle:TELEX:Telex-O.csv" comma="1" semicolon="1">
       <textFields count="14">
         <textField/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="144">
   <si>
     <t>LM4040A10IDBZR</t>
   </si>
@@ -96,54 +96,9 @@
     <t>595-LM4040C10IDBZR</t>
   </si>
   <si>
-    <t>M10SILK_FEMALE_PTH</t>
-  </si>
-  <si>
-    <t>1X10</t>
-  </si>
-  <si>
-    <t>1x10 Header</t>
-  </si>
-  <si>
-    <t>M14</t>
-  </si>
-  <si>
-    <t>1X14</t>
-  </si>
-  <si>
-    <t>1x14 Header</t>
-  </si>
-  <si>
-    <t>MO3PTH</t>
-  </si>
-  <si>
-    <t>M03PTH</t>
-  </si>
-  <si>
-    <t>1X03</t>
-  </si>
-  <si>
-    <t>1x3 Header</t>
-  </si>
-  <si>
-    <t>MP3x2POGO_PINS</t>
-  </si>
-  <si>
-    <t>M03X2POGO_PINS</t>
-  </si>
-  <si>
-    <t>2X3_POGO</t>
-  </si>
-  <si>
-    <t>2x3 Header</t>
-  </si>
-  <si>
     <t>LED3MM</t>
   </si>
   <si>
-    <t>3MM Amber DiffusedLED</t>
-  </si>
-  <si>
     <t>MCP1703AT-5002E/CB</t>
   </si>
   <si>
@@ -183,9 +138,6 @@
     <t>CAP1206</t>
   </si>
   <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
     <t>C105, C107</t>
   </si>
   <si>
@@ -246,15 +198,6 @@
     <t>595-DAC8564ICPW</t>
   </si>
   <si>
-    <t>10-Pin</t>
-  </si>
-  <si>
-    <t>POWER_SIMPLE10</t>
-  </si>
-  <si>
-    <t>POWER_10</t>
-  </si>
-  <si>
     <t>Europower 2x5</t>
   </si>
   <si>
@@ -264,9 +207,6 @@
     <t>WQP_PJ_301M</t>
   </si>
   <si>
-    <t>Kobiconn 3.5mm</t>
-  </si>
-  <si>
     <t>OPA4171</t>
   </si>
   <si>
@@ -441,14 +381,140 @@
     <t>IC102,IC103,IC104,IC105</t>
   </si>
   <si>
-    <t>581-06033C105KAT2A</t>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>1x10M</t>
+  </si>
+  <si>
+    <t>1x10 MALE</t>
+  </si>
+  <si>
+    <t>1x10 FEMALE</t>
+  </si>
+  <si>
+    <t>1x10F</t>
+  </si>
+  <si>
+    <t>1x10 Header, Male</t>
+  </si>
+  <si>
+    <t>1x10 Header, Female</t>
+  </si>
+  <si>
+    <t>1x14 MALE</t>
+  </si>
+  <si>
+    <t>1x14 FEMALE</t>
+  </si>
+  <si>
+    <t>1x14M</t>
+  </si>
+  <si>
+    <t>1x14 Header, Male</t>
+  </si>
+  <si>
+    <t>1x14 Header, Female</t>
+  </si>
+  <si>
+    <t>1x14F</t>
+  </si>
+  <si>
+    <t>1x03 MALE</t>
+  </si>
+  <si>
+    <t>1x03M</t>
+  </si>
+  <si>
+    <t>1x3 Header, Male</t>
+  </si>
+  <si>
+    <t>2x03 MALE</t>
+  </si>
+  <si>
+    <t>2x03M</t>
+  </si>
+  <si>
+    <t>2x3 Header, Male</t>
+  </si>
+  <si>
+    <t>LED3MM WHITE</t>
+  </si>
+  <si>
+    <t>3MM White LED</t>
+  </si>
+  <si>
+    <t>https://www.taydaelectronics.com/leds/round-leds/3mm-leds/white/led-3mm-white-water-clear-ultra-bright.html</t>
+  </si>
+  <si>
+    <t>LED3MM YELLOW</t>
+  </si>
+  <si>
+    <t>3MM Yellow LED</t>
+  </si>
+  <si>
+    <t>https://www.taydaelectronics.com/leds/round-leds/3mm-leds/yellow/led-3mm-yellow.html</t>
+  </si>
+  <si>
+    <t>Forward voltage(V): 2.0-2.3; Current(mA): 20;  Luminous intensity(MCD): 2,000 - 3,000</t>
+  </si>
+  <si>
+    <t>Forward Voltage(V): 3.2-3.4; Current(MA): 20; Luminous intensity(MCD): 14,000 - 16,000</t>
+  </si>
+  <si>
+    <t>2x05 MALE</t>
+  </si>
+  <si>
+    <t>2x05M</t>
+  </si>
+  <si>
+    <t>Thonkiconn 3.5mm</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/3-5mm-jacks/</t>
+  </si>
+  <si>
+    <t>"Thonkiconn"; don't forget to get the nut style of your choice. Erthenvar carries these in the USA.</t>
+  </si>
+  <si>
+    <t>Board Interconnects; Safe to Substutite Machined Headers</t>
+  </si>
+  <si>
+    <t>Teensy Interconnects; Safe to Substitute Machined Headers</t>
+  </si>
+  <si>
+    <t>Jumpers; Standard Headers</t>
+  </si>
+  <si>
+    <t>Europower Connector</t>
+  </si>
+  <si>
+    <t>i2c Connectors; Standard Headers</t>
+  </si>
+  <si>
+    <t>81-GCJ188R71E105KA1D</t>
+  </si>
+  <si>
+    <t>Capacitor; &gt;=16V; 5%</t>
+  </si>
+  <si>
+    <t>Capacitor; &gt;=16V; 10%</t>
+  </si>
+  <si>
+    <t>Capacitor; &gt;=16V; 1%</t>
+  </si>
+  <si>
+    <t>Substitue 110p if you plan to use a Teensy 3.6; Mouser PN 81-GRM185C1H111FA01D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -492,20 +558,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
     <dxf>
       <font>
         <strike val="0"/>
@@ -518,6 +599,7 @@
         <name val="Avenir Next Regular"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -535,6 +617,8 @@
         <name val="Avenir Next Regular"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -552,6 +636,22 @@
         <name val="Avenir Next Regular"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -569,6 +669,7 @@
         <name val="Avenir Next Regular"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -586,6 +687,43 @@
         <name val="Avenir Next Regular"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -600,6 +738,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -614,6 +753,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -628,6 +768,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -642,6 +783,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -655,19 +797,7 @@
         <name val="Avenir Next Regular"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Avenir Next Regular"/>
-        <scheme val="none"/>
-      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -688,31 +818,36 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Telex-O_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Telex-O_1" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:J28" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:J28"/>
-  <sortState ref="A2:J28">
-    <sortCondition ref="E1:E28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:L31" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0">
+  <autoFilter ref="A1:L31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:L31">
+    <sortCondition ref="C1:C31"/>
   </sortState>
-  <tableColumns count="10">
-    <tableColumn id="1" name="Qty" dataDxfId="9"/>
-    <tableColumn id="2" name="Value" dataDxfId="8"/>
-    <tableColumn id="3" name="Device" dataDxfId="7"/>
-    <tableColumn id="4" name="Package" dataDxfId="6"/>
-    <tableColumn id="5" name="Description" dataDxfId="5"/>
-    <tableColumn id="14" name="TopTop" dataDxfId="4"/>
-    <tableColumn id="13" name="TopBottom" dataDxfId="3"/>
-    <tableColumn id="12" name="BottomBottom" dataDxfId="2"/>
-    <tableColumn id="9" name="BottomTop" dataDxfId="1"/>
-    <tableColumn id="10" name="OC_MOUSER" dataDxfId="0"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Qty" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Value" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Device" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Package" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="TopTop" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="TopBottom" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="BottomBottom" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BottomTop" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="OC_MOUSER" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{AEDD9F90-6F54-1840-A8F3-7FDE3ED9AB42}" name="URL" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{E427EAEB-0E87-A446-8D9D-EAA405B01937}" name="Notes" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -980,638 +1115,791 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="48.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="32" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="30">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="30">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="30">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="30">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1">
+      <c r="A10" s="4">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" s="4" customFormat="1">
+      <c r="A13" s="4">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" s="4" customFormat="1">
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1206</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" s="4" customFormat="1" ht="45">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1206</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="4" customFormat="1">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1206</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" s="4" customFormat="1">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" s="4" customFormat="1" ht="30">
+      <c r="A19" s="4">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="4" customFormat="1" ht="30">
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="4" customFormat="1" ht="30">
+      <c r="A21" s="4">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="4" customFormat="1">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" s="4" customFormat="1">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" s="4" customFormat="1">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3">
+        <v>470</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" s="4" customFormat="1">
+      <c r="A25" s="4">
+        <v>8</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" s="4" customFormat="1">
+      <c r="A26" s="4">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" s="4" customFormat="1">
+      <c r="A27" s="4">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" s="4" customFormat="1">
+      <c r="A28" s="4">
+        <v>8</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="I28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" s="4" customFormat="1">
+      <c r="A29" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" s="4" customFormat="1">
+      <c r="A30" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" s="4" customFormat="1">
+      <c r="A31" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1206</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1206</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="C31" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="D31" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="E31" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="I31" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="J14" s="5" t="s">
+      <c r="J31" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>4</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1206</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>4</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>8</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" s="2">
-        <v>470</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>8</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>8</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>4</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hardware/TELEXo/board/TELEXo-BOM.xlsx
+++ b/hardware/TELEXo/board/TELEXo-BOM.xlsx
@@ -507,7 +507,7 @@
     <t>Capacitor; &gt;=16V; 1%</t>
   </si>
   <si>
-    <t>Substitue 110p if you plan to use a Teensy 3.6; Mouser PN 81-GRM185C1H111FA01D</t>
+    <t>Substitue 110p if you plan to use a Teensy 3.6; Mouser PN 80-C1206C111J1G</t>
   </si>
 </sst>
 </file>
@@ -587,20 +587,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Avenir Next Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -811,6 +797,20 @@
         <name val="Avenir Next Regular"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -830,24 +830,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:L31" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:L31" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:L31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:L31">
     <sortCondition ref="C1:C31"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Qty" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Value" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Device" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Package" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="TopTop" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="TopBottom" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="BottomBottom" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BottomTop" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="OC_MOUSER" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{AEDD9F90-6F54-1840-A8F3-7FDE3ED9AB42}" name="URL" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{E427EAEB-0E87-A446-8D9D-EAA405B01937}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Qty" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Value" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Device" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Package" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="TopTop" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="TopBottom" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="BottomBottom" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BottomTop" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="OC_MOUSER" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{AEDD9F90-6F54-1840-A8F3-7FDE3ED9AB42}" name="URL" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{E427EAEB-0E87-A446-8D9D-EAA405B01937}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1118,7 +1118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -1582,7 +1582,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" ht="30">
+    <row r="19" spans="1:12" s="4" customFormat="1" ht="45">
       <c r="A19" s="4">
         <v>8</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="4" customFormat="1" ht="30">
+    <row r="20" spans="1:12" s="4" customFormat="1" ht="45">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="4" customFormat="1" ht="30">
+    <row r="21" spans="1:12" s="4" customFormat="1" ht="45">
       <c r="A21" s="4">
         <v>4</v>
       </c>
